--- a/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
+++ b/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9016" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C77C9AEF-DAFC-4DA0-BA1A-D664D735FBC9}"/>
+  <xr:revisionPtr revIDLastSave="9018" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B3C1012-780E-481E-A1EE-0A48A6050C68}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="6" r:id="rId1"/>
@@ -5195,7 +5195,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5207,7 +5207,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7394548D-F12D-4EC5-A523-6F2377EF6E3B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5278,10 +5278,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5586,8 +5582,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5715,8 +5711,8 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6714,8 +6710,8 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7479,8 +7475,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8413,8 +8409,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8939,8 +8935,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9851,8 +9847,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10642,8 +10638,8 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11484,8 +11480,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12595,8 +12591,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13430,8 +13426,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13897,8 +13893,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14294,8 +14290,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14825,8 +14821,8 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15124,8 +15120,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15422,7 +15418,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15995,8 +15991,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17020,8 +17016,8 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17792,8 +17788,8 @@
   </sheetPr>
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19140,8 +19136,8 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19933,8 +19929,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21246,8 +21242,8 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22457,8 +22453,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
+++ b/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9019" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C40B9ED7-1A56-41C4-9D54-6A45E784F9DC}"/>
+  <xr:revisionPtr revIDLastSave="9020" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4FE90A9-80B1-417C-B8BC-DF3BA78ADDB2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="6" r:id="rId1"/>
@@ -5280,10 +5280,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5590,17 +5586,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -5620,7 +5616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5640,7 +5636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5654,7 +5650,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5668,7 +5664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -5688,7 +5684,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -5719,17 +5715,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -5749,7 +5745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -5769,7 +5765,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5783,7 +5779,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5797,7 +5793,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -5817,7 +5813,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -5831,7 +5827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -5845,7 +5841,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -5859,7 +5855,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -5873,7 +5869,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -5890,7 +5886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -5910,7 +5906,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -5930,7 +5926,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -5950,7 +5946,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -5964,7 +5960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -5978,7 +5974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5992,7 +5988,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -6006,7 +6002,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -6023,7 +6019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>91</v>
       </c>
@@ -6034,7 +6030,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -6054,7 +6050,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -6068,7 +6064,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -6082,7 +6078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -6096,7 +6092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>58</v>
       </c>
@@ -6110,7 +6106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -6130,7 +6126,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6144,7 +6140,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6158,7 +6154,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6172,7 +6168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>58</v>
       </c>
@@ -6186,7 +6182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>223</v>
       </c>
@@ -6206,7 +6202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -6226,7 +6222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>31</v>
       </c>
@@ -6240,7 +6236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -6254,7 +6250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -6268,7 +6264,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -6282,7 +6278,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -6296,7 +6292,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>58</v>
       </c>
@@ -6310,7 +6306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -6330,7 +6326,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6350,7 +6346,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -6364,7 +6360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6378,7 +6374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>551</v>
       </c>
@@ -6398,7 +6394,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -6412,7 +6408,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -6432,7 +6428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>415</v>
       </c>
@@ -6452,7 +6448,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -6466,7 +6462,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -6480,7 +6476,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -6500,7 +6496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6514,7 +6510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -6528,7 +6524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -6542,7 +6538,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>348</v>
       </c>
@@ -6562,7 +6558,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -6582,7 +6578,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -6596,7 +6592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -6610,7 +6606,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -6624,7 +6620,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -6638,7 +6634,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -6652,7 +6648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -6672,7 +6668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>83</v>
       </c>
@@ -6686,7 +6682,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>83</v>
       </c>
@@ -6718,17 +6714,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -6748,7 +6744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -6768,7 +6764,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6782,7 +6778,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -6802,7 +6798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -6816,7 +6812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -6830,7 +6826,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -6844,7 +6840,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -6861,7 +6857,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>113</v>
       </c>
@@ -6872,7 +6868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -6892,7 +6888,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6906,7 +6902,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -6926,7 +6922,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -6946,7 +6942,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -6960,7 +6956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -6974,7 +6970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -6994,7 +6990,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -7008,7 +7004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -7028,7 +7024,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -7048,7 +7044,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -7068,7 +7064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -7082,7 +7078,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -7096,7 +7092,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -7116,7 +7112,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7130,7 +7126,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7144,7 +7140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -7164,7 +7160,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -7178,7 +7174,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>576</v>
       </c>
@@ -7198,7 +7194,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7212,7 +7208,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -7226,7 +7222,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -7240,7 +7236,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>58</v>
       </c>
@@ -7254,7 +7250,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>551</v>
       </c>
@@ -7274,7 +7270,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>166</v>
       </c>
@@ -7294,7 +7290,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -7308,7 +7304,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -7322,7 +7318,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -7336,7 +7332,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7350,7 +7346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -7370,7 +7366,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>31</v>
       </c>
@@ -7384,7 +7380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -7398,7 +7394,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -7412,7 +7408,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>348</v>
       </c>
@@ -7432,7 +7428,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -7446,7 +7442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>339</v>
       </c>
@@ -7483,17 +7479,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -7513,7 +7509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>587</v>
       </c>
@@ -7533,7 +7529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7547,7 +7543,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -7567,7 +7563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -7581,7 +7577,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -7595,7 +7591,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -7615,7 +7611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -7629,7 +7625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7643,7 +7639,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -7657,7 +7653,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -7674,7 +7670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>501</v>
       </c>
@@ -7685,7 +7681,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -7705,7 +7701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -7719,7 +7715,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -7733,7 +7729,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -7747,7 +7743,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -7761,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -7775,7 +7771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -7795,7 +7791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -7815,7 +7811,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -7835,7 +7831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7849,7 +7845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>602</v>
       </c>
@@ -7869,7 +7865,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -7883,7 +7879,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -7897,7 +7893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -7911,7 +7907,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -7928,7 +7924,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>223</v>
       </c>
@@ -7948,7 +7944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -7968,7 +7964,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -7988,7 +7984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>31</v>
       </c>
@@ -8002,7 +7998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -8016,7 +8012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8030,7 +8026,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -8044,7 +8040,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>615</v>
       </c>
@@ -8064,7 +8060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -8078,7 +8074,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -8092,7 +8088,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -8112,7 +8108,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>31</v>
       </c>
@@ -8126,7 +8122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8140,7 +8136,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -8160,7 +8156,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>551</v>
       </c>
@@ -8180,7 +8176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -8194,7 +8190,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -8208,7 +8204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>415</v>
       </c>
@@ -8228,7 +8224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -8248,7 +8244,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -8262,7 +8258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -8276,7 +8272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -8290,7 +8286,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>339</v>
       </c>
@@ -8310,7 +8306,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8324,7 +8320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -8344,7 +8340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -8358,7 +8354,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -8372,7 +8368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -8389,7 +8385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>440</v>
       </c>
@@ -8417,17 +8413,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -8447,7 +8443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>587</v>
       </c>
@@ -8467,7 +8463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8481,7 +8477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8495,7 +8491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8509,7 +8505,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -8529,7 +8525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8543,7 +8539,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8563,7 +8559,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -8577,7 +8573,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -8591,7 +8587,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -8608,7 +8604,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>515</v>
       </c>
@@ -8619,7 +8615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -8639,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -8653,7 +8649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8667,7 +8663,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -8687,7 +8683,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -8707,7 +8703,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8721,7 +8717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -8741,7 +8737,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -8758,7 +8754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>113</v>
       </c>
@@ -8769,7 +8765,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>257</v>
       </c>
@@ -8789,7 +8785,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -8803,7 +8799,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -8823,7 +8819,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -8843,7 +8839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -8863,7 +8859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -8877,7 +8873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -8891,7 +8887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8905,7 +8901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -8943,17 +8939,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -8973,7 +8969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>587</v>
       </c>
@@ -8993,7 +8989,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -9013,7 +9009,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -9027,7 +9023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -9041,7 +9037,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -9055,7 +9051,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -9069,7 +9065,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -9083,7 +9079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -9103,7 +9099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -9117,7 +9113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9131,7 +9127,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9145,7 +9141,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9159,7 +9155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -9179,7 +9175,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -9193,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -9207,7 +9203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -9227,7 +9223,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>7</v>
       </c>
@@ -9241,7 +9237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -9255,7 +9251,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -9269,7 +9265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -9289,7 +9285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -9303,7 +9299,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -9317,7 +9313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -9337,7 +9333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>31</v>
       </c>
@@ -9351,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -9365,7 +9361,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>651</v>
       </c>
@@ -9385,7 +9381,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9399,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9413,7 +9409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>223</v>
       </c>
@@ -9433,7 +9429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -9447,7 +9443,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -9461,7 +9457,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -9481,7 +9477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -9501,7 +9497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -9515,7 +9511,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -9529,7 +9525,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -9543,7 +9539,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -9557,7 +9553,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>657</v>
       </c>
@@ -9577,7 +9573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -9597,7 +9593,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>7</v>
       </c>
@@ -9611,7 +9607,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>551</v>
       </c>
@@ -9631,7 +9627,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -9651,7 +9647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -9665,7 +9661,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -9679,7 +9675,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -9699,7 +9695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -9713,7 +9709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -9727,7 +9723,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -9741,7 +9737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>339</v>
       </c>
@@ -9761,7 +9757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -9775,7 +9771,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>229</v>
       </c>
@@ -9795,7 +9791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -9809,7 +9805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -9823,7 +9819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -9855,17 +9851,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -9885,7 +9881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -9905,7 +9901,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -9925,7 +9921,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>667</v>
       </c>
@@ -9945,7 +9941,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -9959,7 +9955,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -9979,7 +9975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9993,7 +9989,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -10013,7 +10009,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -10033,7 +10029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10047,7 +10043,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10061,7 +10057,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>651</v>
       </c>
@@ -10081,7 +10077,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10095,7 +10091,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -10109,7 +10105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -10123,7 +10119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -10137,7 +10133,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>223</v>
       </c>
@@ -10157,7 +10153,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -10171,7 +10167,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -10191,7 +10187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -10205,7 +10201,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -10225,7 +10221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>31</v>
       </c>
@@ -10239,7 +10235,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -10253,7 +10249,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -10267,7 +10263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -10281,7 +10277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -10301,7 +10297,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>682</v>
       </c>
@@ -10321,7 +10317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -10335,7 +10331,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -10349,7 +10345,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -10363,7 +10359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>58</v>
       </c>
@@ -10377,7 +10373,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -10397,7 +10393,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>551</v>
       </c>
@@ -10417,7 +10413,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -10431,7 +10427,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -10445,7 +10441,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -10465,7 +10461,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>348</v>
       </c>
@@ -10485,7 +10481,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>694</v>
       </c>
@@ -10505,7 +10501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -10519,7 +10515,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>339</v>
       </c>
@@ -10539,7 +10535,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -10553,7 +10549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -10567,7 +10563,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10581,7 +10577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>229</v>
       </c>
@@ -10601,7 +10597,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -10615,7 +10611,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -10646,17 +10642,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -10676,7 +10672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>587</v>
       </c>
@@ -10696,7 +10692,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -10716,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -10736,7 +10732,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -10753,7 +10749,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -10773,7 +10769,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -10787,7 +10783,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -10807,7 +10803,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -10827,7 +10823,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -10841,7 +10837,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -10861,7 +10857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -10875,7 +10871,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -10889,7 +10885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -10906,7 +10902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>444</v>
       </c>
@@ -10917,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>707</v>
       </c>
@@ -10937,7 +10933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -10957,7 +10953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -10971,7 +10967,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -10985,7 +10981,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -10999,7 +10995,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -11013,7 +11009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -11027,7 +11023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -11047,7 +11043,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -11061,7 +11057,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>715</v>
       </c>
@@ -11081,7 +11077,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11095,7 +11091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -11109,7 +11105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -11129,7 +11125,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -11143,7 +11139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -11157,7 +11153,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -11177,7 +11173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -11191,7 +11187,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>682</v>
       </c>
@@ -11211,7 +11207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -11225,7 +11221,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -11245,7 +11241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>725</v>
       </c>
@@ -11265,7 +11261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -11279,7 +11275,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -11293,7 +11289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>694</v>
       </c>
@@ -11313,7 +11309,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>339</v>
       </c>
@@ -11333,7 +11329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -11347,7 +11343,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -11361,7 +11357,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>229</v>
       </c>
@@ -11381,7 +11377,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -11395,7 +11391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -11409,7 +11405,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -11423,7 +11419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>58</v>
       </c>
@@ -11437,7 +11433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>729</v>
       </c>
@@ -11457,7 +11453,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>83</v>
       </c>
@@ -11488,17 +11484,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -11518,7 +11514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -11538,7 +11534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11552,7 +11548,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11566,7 +11562,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11580,7 +11576,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -11594,7 +11590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -11614,7 +11610,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -11628,7 +11624,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -11645,7 +11641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>736</v>
       </c>
@@ -11656,7 +11652,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -11676,7 +11672,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>283</v>
       </c>
@@ -11696,7 +11692,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11710,7 +11706,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -11730,7 +11726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -11750,7 +11746,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -11764,7 +11760,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11778,7 +11774,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11792,7 +11788,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11806,7 +11802,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -11820,7 +11816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>707</v>
       </c>
@@ -11840,7 +11836,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11854,7 +11850,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -11868,7 +11864,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -11882,7 +11878,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>223</v>
       </c>
@@ -11902,7 +11898,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -11922,7 +11918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -11936,7 +11932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -11950,7 +11946,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -11964,7 +11960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -11984,7 +11980,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -11998,7 +11994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -12012,7 +12008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -12026,7 +12022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -12046,7 +12042,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -12066,7 +12062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -12080,7 +12076,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -12094,7 +12090,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -12108,7 +12104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>751</v>
       </c>
@@ -12128,7 +12124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -12142,7 +12138,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -12156,7 +12152,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>331</v>
       </c>
@@ -12176,7 +12172,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -12190,7 +12186,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -12204,7 +12200,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>551</v>
       </c>
@@ -12224,7 +12220,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -12238,7 +12234,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -12252,7 +12248,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -12272,7 +12268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -12286,7 +12282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>694</v>
       </c>
@@ -12306,7 +12302,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -12320,7 +12316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -12334,7 +12330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -12348,7 +12344,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -12362,7 +12358,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>339</v>
       </c>
@@ -12382,7 +12378,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -12396,7 +12392,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>763</v>
       </c>
@@ -12416,7 +12412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -12430,7 +12426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12444,7 +12440,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12458,7 +12454,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>229</v>
       </c>
@@ -12478,7 +12474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -12492,7 +12488,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -12506,7 +12502,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>58</v>
       </c>
@@ -12520,7 +12516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -12540,7 +12536,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>83</v>
       </c>
@@ -12554,7 +12550,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>83</v>
       </c>
@@ -12568,7 +12564,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -12599,17 +12595,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -12629,7 +12625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>773</v>
       </c>
@@ -12649,7 +12645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12663,7 +12659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12677,7 +12673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -12697,7 +12693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -12711,7 +12707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -12731,7 +12727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -12745,7 +12741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -12759,7 +12755,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -12773,7 +12769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>779</v>
       </c>
@@ -12793,7 +12789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12807,7 +12803,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -12827,7 +12823,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -12841,7 +12837,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12855,7 +12851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -12869,7 +12865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -12883,7 +12879,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -12897,7 +12893,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -12917,7 +12913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -12931,7 +12927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -12945,7 +12941,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -12965,7 +12961,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12979,7 +12975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>223</v>
       </c>
@@ -12999,7 +12995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -13013,7 +13009,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -13027,7 +13023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -13041,7 +13037,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -13055,7 +13051,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -13075,7 +13071,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -13089,7 +13085,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -13109,7 +13105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -13123,7 +13119,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -13137,7 +13133,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -13151,7 +13147,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -13171,7 +13167,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -13185,7 +13181,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -13199,7 +13195,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -13219,7 +13215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -13233,7 +13229,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -13247,7 +13243,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -13261,7 +13257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -13275,7 +13271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -13295,7 +13291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>551</v>
       </c>
@@ -13315,7 +13311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -13329,7 +13325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -13343,7 +13339,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -13363,7 +13359,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>31</v>
       </c>
@@ -13377,7 +13373,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>694</v>
       </c>
@@ -13397,7 +13393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>339</v>
       </c>
@@ -13434,17 +13430,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -13464,7 +13460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -13484,7 +13480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -13504,7 +13500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>806</v>
       </c>
@@ -13524,7 +13520,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>807</v>
       </c>
@@ -13544,7 +13540,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -13558,7 +13554,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -13572,7 +13568,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -13592,7 +13588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -13612,7 +13608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -13626,7 +13622,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -13646,7 +13642,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>812</v>
       </c>
@@ -13666,7 +13662,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -13686,7 +13682,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -13700,7 +13696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -13720,7 +13716,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>682</v>
       </c>
@@ -13740,7 +13736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -13754,7 +13750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -13768,7 +13764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -13782,7 +13778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>58</v>
       </c>
@@ -13796,7 +13792,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>819</v>
       </c>
@@ -13816,7 +13812,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -13830,7 +13826,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -13850,7 +13846,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>725</v>
       </c>
@@ -13870,7 +13866,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -13901,17 +13897,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -13931,7 +13927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -13951,7 +13947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13965,7 +13961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13979,7 +13975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13993,7 +13989,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -14007,7 +14003,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -14027,7 +14023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -14041,7 +14037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -14055,7 +14051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -14069,7 +14065,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>58</v>
       </c>
@@ -14083,7 +14079,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -14103,7 +14099,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -14117,7 +14113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -14131,7 +14127,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -14151,7 +14147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -14165,7 +14161,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -14179,7 +14175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -14193,7 +14189,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -14207,7 +14203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>225</v>
       </c>
@@ -14227,7 +14223,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>227</v>
       </c>
@@ -14247,7 +14243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14261,7 +14257,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -14298,17 +14294,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -14328,7 +14324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>806</v>
       </c>
@@ -14348,7 +14344,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14362,7 +14358,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14376,7 +14372,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>807</v>
       </c>
@@ -14396,7 +14392,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -14410,7 +14406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>707</v>
       </c>
@@ -14430,7 +14426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14444,7 +14440,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -14464,7 +14460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -14478,7 +14474,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>831</v>
       </c>
@@ -14498,7 +14494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -14518,7 +14514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -14538,7 +14534,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -14558,7 +14554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -14572,7 +14568,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -14586,7 +14582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>551</v>
       </c>
@@ -14606,7 +14602,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -14620,7 +14616,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14634,7 +14630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -14648,7 +14644,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -14662,7 +14658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>58</v>
       </c>
@@ -14676,7 +14672,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -14696,7 +14692,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>694</v>
       </c>
@@ -14716,7 +14712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>7</v>
       </c>
@@ -14730,7 +14726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>31</v>
       </c>
@@ -14744,7 +14740,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -14758,7 +14754,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -14772,7 +14768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>339</v>
       </c>
@@ -14792,7 +14788,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>229</v>
       </c>
@@ -14829,17 +14825,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -14859,7 +14855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>308</v>
       </c>
@@ -14879,7 +14875,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -14899,7 +14895,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -14913,7 +14909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>779</v>
       </c>
@@ -14933,7 +14929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -14947,7 +14943,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>283</v>
       </c>
@@ -14967,7 +14963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -14981,7 +14977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -14995,7 +14991,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -15009,7 +15005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -15023,7 +15019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>807</v>
       </c>
@@ -15043,7 +15039,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -15063,7 +15059,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -15077,7 +15073,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -15091,7 +15087,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -15128,17 +15124,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -15158,7 +15154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>854</v>
       </c>
@@ -15178,7 +15174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -15198,7 +15194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -15212,7 +15208,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>283</v>
       </c>
@@ -15232,7 +15228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -15252,7 +15248,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -15266,7 +15262,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -15280,7 +15276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>779</v>
       </c>
@@ -15300,7 +15296,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -15314,7 +15310,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -15328,7 +15324,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -15348,7 +15344,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -15368,7 +15364,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -15388,7 +15384,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -15425,18 +15421,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
@@ -15456,7 +15452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -15477,7 +15473,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -15498,7 +15494,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -15519,7 +15515,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -15540,7 +15536,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -15561,7 +15557,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -15583,7 +15579,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -15605,7 +15601,7 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -15627,7 +15623,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -15649,7 +15645,7 @@
       </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -15671,7 +15667,7 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -15692,7 +15688,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -15713,7 +15709,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -15734,7 +15730,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -15755,7 +15751,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -15776,7 +15772,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -15797,7 +15793,7 @@
         <v>0.34482758620689657</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -15818,7 +15814,7 @@
         <v>0.52272727272727271</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -15839,7 +15835,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -15860,7 +15856,7 @@
         <v>-0.18181818181818182</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -15881,7 +15877,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -15902,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -15923,7 +15919,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
@@ -15948,7 +15944,7 @@
         <v>0.48725637181409298</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -15999,17 +15995,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -16029,7 +16025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -16049,7 +16045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -16063,7 +16059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -16077,7 +16073,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -16091,7 +16087,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -16105,7 +16101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -16125,7 +16121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -16139,7 +16135,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -16153,7 +16149,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -16167,7 +16163,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -16181,7 +16177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>240</v>
       </c>
@@ -16201,7 +16197,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>242</v>
       </c>
@@ -16221,7 +16217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -16235,7 +16231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -16249,7 +16245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -16263,7 +16259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -16277,7 +16273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -16297,7 +16293,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>7</v>
       </c>
@@ -16311,7 +16307,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -16331,7 +16327,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -16345,7 +16341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>6</v>
       </c>
@@ -16359,7 +16355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -16373,7 +16369,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16387,7 +16383,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -16401,7 +16397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>252</v>
       </c>
@@ -16421,7 +16417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -16441,7 +16437,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>7</v>
       </c>
@@ -16455,7 +16451,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -16475,7 +16471,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -16489,7 +16485,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>257</v>
       </c>
@@ -16509,7 +16505,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -16523,7 +16519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -16537,7 +16533,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -16551,7 +16547,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>261</v>
       </c>
@@ -16571,7 +16567,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>7</v>
       </c>
@@ -16585,7 +16581,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>6</v>
       </c>
@@ -16599,7 +16595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -16613,7 +16609,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>266</v>
       </c>
@@ -16633,7 +16629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>7</v>
       </c>
@@ -16647,7 +16643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -16661,7 +16657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -16675,7 +16671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -16689,7 +16685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -16703,7 +16699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -16717,7 +16713,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -16731,7 +16727,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -16751,7 +16747,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>7</v>
       </c>
@@ -16765,7 +16761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>6</v>
       </c>
@@ -16779,7 +16775,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -16793,7 +16789,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>31</v>
       </c>
@@ -16807,7 +16803,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -16821,7 +16817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -16841,7 +16837,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>7</v>
       </c>
@@ -16855,7 +16851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>6</v>
       </c>
@@ -16869,7 +16865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -16883,7 +16879,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -16897,7 +16893,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>277</v>
       </c>
@@ -16917,7 +16913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -16931,7 +16927,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -16945,7 +16941,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -16959,7 +16955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -16973,7 +16969,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>281</v>
       </c>
@@ -16993,7 +16989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -17024,17 +17020,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -17054,7 +17050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -17074,7 +17070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -17094,7 +17090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>283</v>
       </c>
@@ -17114,7 +17110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -17128,7 +17124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -17148,7 +17144,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -17162,7 +17158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -17182,7 +17178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -17196,7 +17192,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -17210,7 +17206,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -17230,7 +17226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -17244,7 +17240,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -17264,7 +17260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -17278,7 +17274,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -17298,7 +17294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -17312,7 +17308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -17326,7 +17322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -17346,7 +17342,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -17366,7 +17362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -17380,7 +17376,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17394,7 +17390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17408,7 +17404,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -17422,7 +17418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -17442,7 +17438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -17456,7 +17452,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -17470,7 +17466,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -17484,7 +17480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -17498,7 +17494,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -17518,7 +17514,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -17532,7 +17528,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -17546,7 +17542,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -17560,7 +17556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -17580,7 +17576,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -17600,7 +17596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -17614,7 +17610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -17628,7 +17624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -17648,7 +17644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>229</v>
       </c>
@@ -17668,7 +17664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -17682,7 +17678,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>140</v>
       </c>
@@ -17702,7 +17698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>7</v>
       </c>
@@ -17716,7 +17712,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>6</v>
       </c>
@@ -17730,7 +17726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -17750,7 +17746,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>7</v>
       </c>
@@ -17764,7 +17760,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>6</v>
       </c>
@@ -17796,17 +17792,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -17826,7 +17822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -17846,7 +17842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17860,7 +17856,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -17874,7 +17870,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>308</v>
       </c>
@@ -17894,7 +17890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -17914,7 +17910,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -17928,7 +17924,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -17942,7 +17938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -17962,7 +17958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -17976,7 +17972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -17990,7 +17986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -18004,7 +18000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -18018,7 +18014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>283</v>
       </c>
@@ -18038,7 +18034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -18052,7 +18048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -18066,7 +18062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -18080,7 +18076,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -18094,7 +18090,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -18114,7 +18110,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -18128,7 +18124,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -18142,7 +18138,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -18156,7 +18152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -18176,7 +18172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -18190,7 +18186,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -18204,7 +18200,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -18221,7 +18217,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -18241,7 +18237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -18255,7 +18251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -18269,7 +18265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -18283,7 +18279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>157</v>
       </c>
@@ -18303,7 +18299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -18317,7 +18313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -18331,7 +18327,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -18345,7 +18341,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -18365,7 +18361,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -18379,7 +18375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -18393,7 +18389,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -18407,7 +18403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -18427,7 +18423,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>31</v>
       </c>
@@ -18441,7 +18437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -18455,7 +18451,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -18469,7 +18465,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -18489,7 +18485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -18503,7 +18499,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -18517,7 +18513,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -18531,7 +18527,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -18551,7 +18547,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -18568,7 +18564,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>172</v>
       </c>
@@ -18588,7 +18584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -18602,7 +18598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -18616,7 +18612,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -18636,7 +18632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -18650,7 +18646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>331</v>
       </c>
@@ -18670,7 +18666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -18684,7 +18680,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -18698,7 +18694,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -18712,7 +18708,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -18732,7 +18728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>31</v>
       </c>
@@ -18746,7 +18742,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -18760,7 +18756,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -18774,7 +18770,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -18788,7 +18784,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -18802,7 +18798,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>58</v>
       </c>
@@ -18816,7 +18812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>277</v>
       </c>
@@ -18836,7 +18832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>2</v>
       </c>
@@ -18850,7 +18846,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -18864,7 +18860,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>58</v>
       </c>
@@ -18878,7 +18874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>339</v>
       </c>
@@ -18898,7 +18894,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>2</v>
       </c>
@@ -18912,7 +18908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -18926,7 +18922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>58</v>
       </c>
@@ -18940,7 +18936,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>140</v>
       </c>
@@ -18960,7 +18956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>2</v>
       </c>
@@ -18974,7 +18970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>0</v>
       </c>
@@ -18988,7 +18984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>229</v>
       </c>
@@ -19008,7 +19004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -19022,7 +19018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -19042,7 +19038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>83</v>
       </c>
@@ -19056,7 +19052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>83</v>
       </c>
@@ -19070,7 +19066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>136</v>
       </c>
@@ -19087,7 +19083,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>344</v>
       </c>
@@ -19098,7 +19094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>136</v>
       </c>
@@ -19115,7 +19111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>59</v>
       </c>
@@ -19144,17 +19140,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -19174,7 +19170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -19194,7 +19190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>31</v>
       </c>
@@ -19208,7 +19204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -19222,7 +19218,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -19236,7 +19232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -19250,7 +19246,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>348</v>
       </c>
@@ -19270,7 +19266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -19284,7 +19280,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -19298,7 +19294,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -19318,7 +19314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -19338,7 +19334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -19352,7 +19348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -19366,7 +19362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -19380,7 +19376,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -19400,7 +19396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -19414,7 +19410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -19428,7 +19424,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -19448,7 +19444,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -19462,7 +19458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -19476,7 +19472,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -19490,7 +19486,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -19510,7 +19506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -19524,7 +19520,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -19538,7 +19534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -19558,7 +19554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -19578,7 +19574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -19592,7 +19588,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -19606,7 +19602,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -19620,7 +19616,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -19640,7 +19636,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -19654,7 +19650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -19668,7 +19664,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -19688,7 +19684,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>31</v>
       </c>
@@ -19702,7 +19698,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -19716,7 +19712,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -19730,7 +19726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -19744,7 +19740,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -19764,7 +19760,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -19778,7 +19774,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>172</v>
       </c>
@@ -19798,7 +19794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -19818,7 +19814,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -19832,7 +19828,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -19852,7 +19848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>229</v>
       </c>
@@ -19872,7 +19868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -19886,7 +19882,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -19900,7 +19896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>373</v>
       </c>
@@ -19937,17 +19933,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -19967,7 +19963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -19987,7 +19983,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -20001,7 +19997,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -20015,7 +20011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -20029,7 +20025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -20049,7 +20045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>31</v>
       </c>
@@ -20063,7 +20059,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -20077,7 +20073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -20091,7 +20087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -20111,7 +20107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -20125,7 +20121,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -20139,7 +20135,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -20153,7 +20149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -20173,7 +20169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -20187,7 +20183,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -20201,7 +20197,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>384</v>
       </c>
@@ -20221,7 +20217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -20235,7 +20231,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -20249,7 +20245,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -20263,7 +20259,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -20277,7 +20273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -20291,7 +20287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>388</v>
       </c>
@@ -20311,7 +20307,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -20325,7 +20321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -20339,7 +20335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -20353,7 +20349,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>391</v>
       </c>
@@ -20373,7 +20369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -20387,7 +20383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -20401,7 +20397,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -20421,7 +20417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -20435,7 +20431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -20449,7 +20445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>58</v>
       </c>
@@ -20463,7 +20459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>157</v>
       </c>
@@ -20483,7 +20479,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -20497,7 +20493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -20511,7 +20507,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -20531,7 +20527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -20545,7 +20541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -20559,7 +20555,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -20573,7 +20569,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -20593,7 +20589,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -20607,7 +20603,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -20621,7 +20617,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -20635,7 +20631,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -20649,7 +20645,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -20663,7 +20659,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -20677,7 +20673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -20697,7 +20693,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -20711,7 +20707,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -20725,7 +20721,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -20745,7 +20741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>31</v>
       </c>
@@ -20759,7 +20755,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -20773,7 +20769,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -20793,7 +20789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -20807,7 +20803,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -20821,7 +20817,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>415</v>
       </c>
@@ -20841,7 +20837,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -20855,7 +20851,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -20869,7 +20865,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -20883,7 +20879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -20903,7 +20899,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>31</v>
       </c>
@@ -20917,7 +20913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -20931,7 +20927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -20945,7 +20941,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>277</v>
       </c>
@@ -20965,7 +20961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -20979,7 +20975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -20993,7 +20989,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>58</v>
       </c>
@@ -21007,7 +21003,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>339</v>
       </c>
@@ -21027,7 +21023,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -21041,7 +21037,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -21055,7 +21051,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>58</v>
       </c>
@@ -21069,7 +21065,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>140</v>
       </c>
@@ -21089,7 +21085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -21103,7 +21099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -21117,7 +21113,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>229</v>
       </c>
@@ -21137,7 +21133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>373</v>
       </c>
@@ -21157,7 +21153,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>2</v>
       </c>
@@ -21171,7 +21167,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>0</v>
       </c>
@@ -21185,7 +21181,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -21205,7 +21201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>83</v>
       </c>
@@ -21219,7 +21215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>83</v>
       </c>
@@ -21250,17 +21246,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -21280,7 +21276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>433</v>
       </c>
@@ -21300,7 +21296,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -21320,7 +21316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -21334,7 +21330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -21348,7 +21344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -21362,7 +21358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>439</v>
       </c>
@@ -21382,7 +21378,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -21396,7 +21392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -21416,7 +21412,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -21430,7 +21426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -21444,7 +21440,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>283</v>
       </c>
@@ -21464,7 +21460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -21478,7 +21474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -21492,7 +21488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -21506,7 +21502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -21526,7 +21522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -21540,7 +21536,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -21554,7 +21550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -21568,7 +21564,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -21582,7 +21578,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -21596,7 +21592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -21616,7 +21612,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -21630,7 +21626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -21644,7 +21640,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -21661,7 +21657,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>116</v>
       </c>
@@ -21672,7 +21668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -21692,7 +21688,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -21706,7 +21702,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -21720,7 +21716,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -21740,7 +21736,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -21754,7 +21750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -21768,7 +21764,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -21782,7 +21778,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -21796,7 +21792,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -21816,7 +21812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -21830,7 +21826,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -21844,7 +21840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -21858,7 +21854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>58</v>
       </c>
@@ -21872,7 +21868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -21892,7 +21888,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -21906,7 +21902,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -21920,7 +21916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -21934,7 +21930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -21948,7 +21944,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -21968,7 +21964,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -21982,7 +21978,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -21996,7 +21992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -22010,7 +22006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -22024,7 +22020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -22044,7 +22040,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -22058,7 +22054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -22072,7 +22068,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>415</v>
       </c>
@@ -22092,7 +22088,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -22106,7 +22102,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -22120,7 +22116,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>58</v>
       </c>
@@ -22134,7 +22130,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>54</v>
       </c>
@@ -22154,7 +22150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>31</v>
       </c>
@@ -22168,7 +22164,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -22182,7 +22178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -22196,7 +22192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -22210,7 +22206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -22224,7 +22220,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>58</v>
       </c>
@@ -22238,7 +22234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -22255,7 +22251,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>379</v>
       </c>
@@ -22266,7 +22262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -22286,7 +22282,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -22300,7 +22296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -22314,7 +22310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>229</v>
       </c>
@@ -22334,7 +22330,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -22348,7 +22344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -22362,7 +22358,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>373</v>
       </c>
@@ -22382,7 +22378,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -22396,7 +22392,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>134</v>
       </c>
@@ -22416,7 +22412,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>83</v>
       </c>
@@ -22430,7 +22426,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>83</v>
       </c>
@@ -22461,17 +22457,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -22491,7 +22487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -22511,7 +22507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -22525,7 +22521,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -22539,7 +22535,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>58</v>
       </c>
@@ -22553,7 +22549,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -22573,7 +22569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>31</v>
       </c>
@@ -22587,7 +22583,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -22601,7 +22597,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -22621,7 +22617,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -22635,7 +22631,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -22655,7 +22651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -22669,7 +22665,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -22683,7 +22679,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -22697,7 +22693,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -22717,7 +22713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -22731,7 +22727,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -22745,7 +22741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -22759,7 +22755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -22773,7 +22769,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -22787,7 +22783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -22807,7 +22803,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -22821,7 +22817,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -22835,7 +22831,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -22849,7 +22845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -22863,7 +22859,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -22880,7 +22876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>157</v>
       </c>
@@ -22900,7 +22896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -22914,7 +22910,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -22934,7 +22930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -22948,7 +22944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -22968,7 +22964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -22982,7 +22978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -22996,7 +22992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -23010,7 +23006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -23024,7 +23020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -23038,7 +23034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -23058,7 +23054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -23078,7 +23074,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -23092,7 +23088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -23106,7 +23102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -23120,7 +23116,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -23140,7 +23136,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -23154,7 +23150,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -23168,7 +23164,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>331</v>
       </c>
@@ -23188,7 +23184,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -23208,7 +23204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>31</v>
       </c>
@@ -23222,7 +23218,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -23236,7 +23232,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>136</v>
       </c>
@@ -23253,7 +23249,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>515</v>
       </c>
@@ -23264,7 +23260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>348</v>
       </c>
@@ -23284,7 +23280,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -23298,7 +23294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -23312,7 +23308,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -23326,7 +23322,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>58</v>
       </c>
@@ -23340,7 +23336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>339</v>
       </c>
@@ -23360,7 +23356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -23374,7 +23370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -23388,7 +23384,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -23402,7 +23398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -23422,7 +23418,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>229</v>
       </c>
@@ -23442,7 +23438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -23456,7 +23452,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -23470,7 +23466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>134</v>
       </c>
@@ -23490,7 +23486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>83</v>
       </c>
@@ -23504,7 +23500,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>83</v>
       </c>

--- a/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
+++ b/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9020" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4FE90A9-80B1-417C-B8BC-DF3BA78ADDB2}"/>
+  <xr:revisionPtr revIDLastSave="9021" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63ADAA21-3359-44DF-BAB4-5E15C6501088}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="6" r:id="rId1"/>
@@ -5586,17 +5586,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -5715,17 +5715,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>91</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>58</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>58</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>223</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>31</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>58</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>551</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>415</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>348</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>83</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>83</v>
       </c>
@@ -6714,17 +6714,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>113</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>576</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>58</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>551</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>166</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>31</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>348</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>339</v>
       </c>
@@ -7479,17 +7479,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>587</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>501</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>602</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>223</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>31</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>615</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>31</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>551</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>415</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>339</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>440</v>
       </c>
@@ -8413,17 +8413,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>587</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>515</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>113</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>257</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -8939,17 +8939,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>587</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>7</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>31</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>651</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>223</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>657</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>7</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>551</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>339</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>229</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -9851,17 +9851,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>667</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>651</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>223</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>31</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>682</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>58</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>551</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>348</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>694</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>339</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>229</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -10642,17 +10642,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>587</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>444</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>707</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>715</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>682</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>725</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>694</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>339</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>229</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>58</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>729</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>83</v>
       </c>
@@ -11484,17 +11484,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>736</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>283</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>707</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>223</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>751</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>331</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>551</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>694</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>339</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>763</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>229</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>58</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>83</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>83</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -12595,17 +12595,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>773</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>779</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>223</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>551</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>31</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>694</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>339</v>
       </c>
@@ -13430,17 +13430,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>806</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>807</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>812</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>682</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>58</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>819</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>725</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -13897,17 +13897,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>58</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>225</v>
       </c>
@@ -14223,7 +14223,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>227</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -14294,17 +14294,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>806</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>807</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>707</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>831</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>551</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>58</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>694</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>7</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>31</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>339</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>229</v>
       </c>
@@ -14825,17 +14825,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>308</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>779</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>283</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>807</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -15124,17 +15124,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>854</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>283</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -15262,7 +15262,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>779</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -15421,18 +15421,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -15579,7 +15579,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -15601,7 +15601,7 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -15623,7 +15623,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -15645,7 +15645,7 @@
       </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -15667,7 +15667,7 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>0.34482758620689657</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>0.52272727272727271</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>-0.18181818181818182</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>0.48725637181409298</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -15995,17 +15995,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -16087,7 +16087,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>240</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>242</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>7</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>6</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>252</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>7</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>257</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>261</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>7</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>6</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>266</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>7</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>7</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>6</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>31</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>7</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>6</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>277</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>281</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -17020,17 +17020,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>283</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -17362,7 +17362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -17466,7 +17466,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -17542,7 +17542,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -17596,7 +17596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -17610,7 +17610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>229</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>140</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>7</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>6</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>7</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>6</v>
       </c>
@@ -17792,17 +17792,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>308</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -17924,7 +17924,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -18000,7 +18000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>283</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -18152,7 +18152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -18172,7 +18172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -18217,7 +18217,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>157</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>31</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -18547,7 +18547,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>172</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>331</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>31</v>
       </c>
@@ -18742,7 +18742,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -18756,7 +18756,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -18770,7 +18770,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>58</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>277</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>2</v>
       </c>
@@ -18846,7 +18846,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>58</v>
       </c>
@@ -18874,7 +18874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>339</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>2</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>58</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>140</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>2</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>0</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>229</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>83</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>83</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>136</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>344</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>136</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>59</v>
       </c>
@@ -19140,17 +19140,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -19190,7 +19190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>31</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>348</v>
       </c>
@@ -19266,7 +19266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -19280,7 +19280,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -19294,7 +19294,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -19444,7 +19444,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -19458,7 +19458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -19554,7 +19554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -19588,7 +19588,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>31</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>172</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>229</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>373</v>
       </c>
@@ -19933,17 +19933,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>31</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -20087,7 +20087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -20107,7 +20107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -20135,7 +20135,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -20197,7 +20197,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>384</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -20287,7 +20287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>388</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -20321,7 +20321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>391</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -20397,7 +20397,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>58</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>157</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -20493,7 +20493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -20507,7 +20507,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -20617,7 +20617,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -20631,7 +20631,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -20707,7 +20707,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>31</v>
       </c>
@@ -20755,7 +20755,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -20817,7 +20817,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>415</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -20851,7 +20851,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -20879,7 +20879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>31</v>
       </c>
@@ -20913,7 +20913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>277</v>
       </c>
@@ -20961,7 +20961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>58</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>339</v>
       </c>
@@ -21023,7 +21023,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -21051,7 +21051,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>58</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>140</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -21099,7 +21099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>229</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>373</v>
       </c>
@@ -21153,7 +21153,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>2</v>
       </c>
@@ -21167,7 +21167,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>0</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -21201,7 +21201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>83</v>
       </c>
@@ -21215,7 +21215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>83</v>
       </c>
@@ -21246,17 +21246,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>433</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -21358,7 +21358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>439</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -21392,7 +21392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -21440,7 +21440,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>283</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -21488,7 +21488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -21502,7 +21502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -21522,7 +21522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -21550,7 +21550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -21564,7 +21564,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -21578,7 +21578,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -21592,7 +21592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -21612,7 +21612,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -21657,7 +21657,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>116</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -21702,7 +21702,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -21750,7 +21750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -21764,7 +21764,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -21778,7 +21778,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -21812,7 +21812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -21840,7 +21840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -21854,7 +21854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>58</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -21888,7 +21888,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -21916,7 +21916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -21930,7 +21930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -21944,7 +21944,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -21964,7 +21964,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -21992,7 +21992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -22020,7 +22020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -22040,7 +22040,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>415</v>
       </c>
@@ -22088,7 +22088,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>58</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>54</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>31</v>
       </c>
@@ -22164,7 +22164,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -22178,7 +22178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -22192,7 +22192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -22220,7 +22220,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>58</v>
       </c>
@@ -22234,7 +22234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -22251,7 +22251,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>379</v>
       </c>
@@ -22262,7 +22262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -22282,7 +22282,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -22296,7 +22296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>229</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -22358,7 +22358,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>373</v>
       </c>
@@ -22378,7 +22378,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>134</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>83</v>
       </c>
@@ -22426,7 +22426,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>83</v>
       </c>
@@ -22457,17 +22457,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -22487,7 +22487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -22507,7 +22507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -22521,7 +22521,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>58</v>
       </c>
@@ -22549,7 +22549,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -22569,7 +22569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>31</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -22597,7 +22597,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -22651,7 +22651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -22665,7 +22665,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -22679,7 +22679,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -22713,7 +22713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -22727,7 +22727,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -22741,7 +22741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -22755,7 +22755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -22783,7 +22783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -22803,7 +22803,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -22831,7 +22831,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -22859,7 +22859,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>157</v>
       </c>
@@ -22896,7 +22896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -22910,7 +22910,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -22944,7 +22944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -22964,7 +22964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -22978,7 +22978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -22992,7 +22992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -23006,7 +23006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -23020,7 +23020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -23034,7 +23034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -23054,7 +23054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -23074,7 +23074,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -23088,7 +23088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -23102,7 +23102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -23116,7 +23116,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -23150,7 +23150,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>331</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>31</v>
       </c>
@@ -23218,7 +23218,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -23232,7 +23232,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>136</v>
       </c>
@@ -23249,7 +23249,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>515</v>
       </c>
@@ -23260,7 +23260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>348</v>
       </c>
@@ -23280,7 +23280,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -23294,7 +23294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>58</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>339</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -23370,7 +23370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -23398,7 +23398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -23418,7 +23418,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>229</v>
       </c>
@@ -23438,7 +23438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -23466,7 +23466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>134</v>
       </c>
@@ -23486,7 +23486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>83</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>83</v>
       </c>

--- a/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
+++ b/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9021" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63ADAA21-3359-44DF-BAB4-5E15C6501088}"/>
+  <xr:revisionPtr revIDLastSave="9037" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CB9355E-1A93-4B73-B156-CA4FFC06B916}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="13" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="6" r:id="rId1"/>
@@ -908,9 +908,6 @@
     <t>UNCLE TOBY'S HARD COURTS</t>
   </si>
   <si>
-    <t>QATAR TOTAL OPEN</t>
-  </si>
-  <si>
     <t>Iva Majoli (CROATIA)</t>
   </si>
   <si>
@@ -2279,9 +2276,6 @@
     <t>6-7(3) 6-4 6-3</t>
   </si>
   <si>
-    <t>7-5 6-6</t>
-  </si>
-  <si>
     <t>4-6 6-2 7-6(6)</t>
   </si>
   <si>
@@ -2646,6 +2640,12 @@
   </si>
   <si>
     <t>Lesley Pattinama Kerkhove (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
   </si>
 </sst>
 </file>
@@ -5281,9 +5281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5321,7 +5321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5427,7 +5427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5569,7 +5569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5756,13 +5756,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5770,13 +5770,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5787,10 +5787,10 @@
         <v>46</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5810,7 +5810,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5818,7 +5818,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -5832,13 +5832,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5852,7 +5852,7 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5877,7 +5877,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -5897,13 +5897,13 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5917,7 +5917,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -5937,13 +5937,13 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5965,7 +5965,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
@@ -5979,13 +5979,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5993,13 +5993,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6027,7 +6027,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6041,13 +6041,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6055,13 +6055,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6137,7 +6137,7 @@
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6145,13 +6145,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>21</v>
@@ -6193,7 +6193,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>20</v>
@@ -6213,7 +6213,7 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>21</v>
@@ -6227,7 +6227,7 @@
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>21</v>
@@ -6241,7 +6241,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>21</v>
@@ -6255,13 +6255,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6275,7 +6275,7 @@
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6289,7 +6289,7 @@
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6317,7 +6317,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>20</v>
@@ -6343,7 +6343,7 @@
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6351,7 +6351,7 @@
         <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>21</v>
@@ -6365,7 +6365,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>20</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -6385,13 +6385,13 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6405,7 +6405,7 @@
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6430,7 +6430,7 @@
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
@@ -6445,7 +6445,7 @@
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6453,13 +6453,13 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
+        <v>553</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
         <v>554</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6473,7 +6473,7 @@
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6487,7 +6487,7 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>21</v>
@@ -6501,7 +6501,7 @@
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>21</v>
@@ -6515,7 +6515,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>21</v>
@@ -6529,18 +6529,18 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
@@ -6549,18 +6549,18 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -6575,7 +6575,7 @@
         <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6597,13 +6597,13 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -6611,7 +6611,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>21</v>
@@ -6639,7 +6639,7 @@
         <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>21</v>
@@ -6679,7 +6679,7 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6693,7 +6693,7 @@
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6755,13 +6755,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6769,7 +6769,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -6803,7 +6803,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -6817,7 +6817,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -6837,7 +6837,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6848,13 +6848,13 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6885,7 +6885,7 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6893,13 +6893,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>567</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>568</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6913,13 +6913,13 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6933,13 +6933,13 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6947,7 +6947,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -6981,7 +6981,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
@@ -7021,7 +7021,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7035,13 +7035,13 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7055,7 +7055,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>21</v>
@@ -7069,13 +7069,13 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7103,13 +7103,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7117,13 +7117,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7131,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
@@ -7151,13 +7151,13 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7171,12 +7171,12 @@
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -7185,13 +7185,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7199,13 +7199,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7213,7 +7213,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>21</v>
@@ -7233,7 +7233,7 @@
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7241,18 +7241,18 @@
         <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -7267,7 +7267,7 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7281,13 +7281,13 @@
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7295,13 +7295,13 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7309,13 +7309,13 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>20</v>
@@ -7357,13 +7357,13 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
+        <v>583</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
         <v>584</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7371,7 +7371,7 @@
         <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>21</v>
@@ -7399,18 +7399,18 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -7419,13 +7419,13 @@
         <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7433,7 +7433,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>20</v>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -7453,13 +7453,13 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -7520,7 +7520,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -7534,13 +7534,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7574,7 +7574,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7582,13 +7582,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7602,7 +7602,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -7616,7 +7616,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -7636,7 +7636,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7650,7 +7650,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7672,13 +7672,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7692,7 +7692,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -7706,13 +7706,13 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7726,7 +7726,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7734,13 +7734,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7762,7 +7762,7 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -7782,7 +7782,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
@@ -7802,13 +7802,13 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
+        <v>598</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
         <v>599</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7822,7 +7822,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -7836,7 +7836,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -7856,13 +7856,13 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7870,13 +7870,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7884,7 +7884,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>21</v>
@@ -7898,13 +7898,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7915,13 +7915,13 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7935,7 +7935,7 @@
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
@@ -7955,13 +7955,13 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7975,7 +7975,7 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>21</v>
@@ -7989,7 +7989,7 @@
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>21</v>
@@ -8003,7 +8003,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>21</v>
@@ -8023,7 +8023,7 @@
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8037,12 +8037,12 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B48" t="s">
         <v>45</v>
@@ -8051,7 +8051,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>21</v>
@@ -8065,13 +8065,13 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8079,13 +8079,13 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8099,13 +8099,13 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -8113,7 +8113,7 @@
         <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>21</v>
@@ -8127,13 +8127,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8147,18 +8147,18 @@
         <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -8167,7 +8167,7 @@
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>21</v>
@@ -8181,13 +8181,13 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -8206,7 +8206,7 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -8215,7 +8215,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>20</v>
@@ -8235,7 +8235,7 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>21</v>
@@ -8249,7 +8249,7 @@
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>21</v>
@@ -8263,7 +8263,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>21</v>
@@ -8277,18 +8277,18 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
@@ -8297,13 +8297,13 @@
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -8331,7 +8331,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>21</v>
@@ -8345,13 +8345,13 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -8359,7 +8359,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>20</v>
@@ -8376,7 +8376,7 @@
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>20</v>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>21</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -8454,7 +8454,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -8468,7 +8468,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -8482,7 +8482,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -8502,7 +8502,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8530,13 +8530,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8550,13 +8550,13 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8564,13 +8564,13 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8578,7 +8578,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
@@ -8595,7 +8595,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -8654,13 +8654,13 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8674,13 +8674,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8694,13 +8694,13 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8708,7 +8708,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
@@ -8734,7 +8734,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8745,7 +8745,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -8762,7 +8762,7 @@
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8776,13 +8776,13 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8790,13 +8790,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8810,7 +8810,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>20</v>
@@ -8850,7 +8850,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>21</v>
@@ -8864,7 +8864,7 @@
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>21</v>
@@ -8878,7 +8878,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
@@ -8892,7 +8892,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
@@ -8912,7 +8912,7 @@
         <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>20</v>
@@ -8941,7 +8941,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -8980,13 +8980,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9000,13 +9000,13 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9014,7 +9014,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -9028,13 +9028,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9042,13 +9042,13 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9056,13 +9056,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9070,7 +9070,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
@@ -9104,7 +9104,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -9118,7 +9118,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -9132,13 +9132,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9146,7 +9146,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -9157,7 +9157,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -9166,7 +9166,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>861</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -9214,7 +9214,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
@@ -9228,7 +9228,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
@@ -9248,7 +9248,7 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9256,7 +9256,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
@@ -9276,7 +9276,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>21</v>
@@ -9290,13 +9290,13 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9338,7 +9338,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>21</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
@@ -9372,13 +9372,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
+        <v>651</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
         <v>652</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9386,7 +9386,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>21</v>
@@ -9400,7 +9400,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>20</v>
@@ -9440,7 +9440,7 @@
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9448,13 +9448,13 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9468,7 +9468,7 @@
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>20</v>
@@ -9488,7 +9488,7 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>21</v>
@@ -9502,13 +9502,13 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -9516,13 +9516,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9530,13 +9530,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -9550,12 +9550,12 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -9584,13 +9584,13 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -9598,18 +9598,18 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -9624,7 +9624,7 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9638,7 +9638,7 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>21</v>
@@ -9652,13 +9652,13 @@
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9677,7 +9677,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -9686,7 +9686,7 @@
         <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>21</v>
@@ -9700,7 +9700,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>21</v>
@@ -9714,13 +9714,13 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9728,7 +9728,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>20</v>
@@ -9739,7 +9739,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -9748,7 +9748,7 @@
         <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>21</v>
@@ -9762,13 +9762,13 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9782,7 +9782,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>21</v>
@@ -9796,7 +9796,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>21</v>
@@ -9810,7 +9810,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>21</v>
@@ -9847,7 +9847,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9892,13 +9892,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9912,7 +9912,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -9932,13 +9932,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9946,13 +9946,13 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9966,7 +9966,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -9980,13 +9980,13 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10000,13 +10000,13 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
+        <v>668</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>669</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10020,7 +10020,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -10034,13 +10034,13 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10059,7 +10059,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -10068,13 +10068,13 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10082,13 +10082,13 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
         <v>673</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10096,7 +10096,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
@@ -10110,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
@@ -10124,7 +10124,7 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
@@ -10144,13 +10144,13 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -10158,13 +10158,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10192,13 +10192,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10212,7 +10212,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>21</v>
@@ -10226,7 +10226,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>21</v>
@@ -10240,13 +10240,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -10254,7 +10254,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>21</v>
@@ -10268,7 +10268,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>20</v>
@@ -10288,18 +10288,18 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -10308,7 +10308,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>21</v>
@@ -10322,7 +10322,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>21</v>
@@ -10336,13 +10336,13 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10350,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>21</v>
@@ -10364,13 +10364,13 @@
         <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10384,18 +10384,18 @@
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -10404,13 +10404,13 @@
         <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -10418,13 +10418,13 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10438,7 +10438,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10452,18 +10452,18 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -10472,7 +10472,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>20</v>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -10492,7 +10492,7 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>21</v>
@@ -10512,12 +10512,12 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -10532,7 +10532,7 @@
         <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10540,7 +10540,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>21</v>
@@ -10554,13 +10554,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -10588,7 +10588,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>21</v>
@@ -10602,13 +10602,13 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -10616,7 +10616,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>20</v>
@@ -10638,7 +10638,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10674,7 +10674,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10703,7 +10703,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -10723,7 +10723,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
@@ -10740,18 +10740,18 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>861</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -10760,13 +10760,13 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10774,18 +10774,18 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -10800,7 +10800,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10814,7 +10814,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -10828,13 +10828,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10848,7 +10848,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -10862,13 +10862,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10893,7 +10893,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
@@ -10904,7 +10904,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>21</v>
@@ -10915,7 +10915,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -10924,7 +10924,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>20</v>
@@ -10944,7 +10944,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>21</v>
@@ -10958,13 +10958,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10978,7 +10978,7 @@
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10986,13 +10986,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11014,7 +11014,7 @@
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>20</v>
@@ -11034,13 +11034,13 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -11054,12 +11054,12 @@
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -11068,13 +11068,13 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -11082,7 +11082,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>21</v>
@@ -11096,7 +11096,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>20</v>
@@ -11116,7 +11116,7 @@
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>21</v>
@@ -11144,13 +11144,13 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11164,7 +11164,7 @@
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>21</v>
@@ -11178,18 +11178,18 @@
         <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -11198,7 +11198,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>21</v>
@@ -11212,13 +11212,13 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F49" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11232,7 +11232,7 @@
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>20</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -11266,7 +11266,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>21</v>
@@ -11280,7 +11280,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>20</v>
@@ -11291,7 +11291,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -11300,7 +11300,7 @@
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>20</v>
@@ -11311,7 +11311,7 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -11320,7 +11320,7 @@
         <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>21</v>
@@ -11334,13 +11334,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -11354,7 +11354,7 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11368,7 +11368,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>21</v>
@@ -11382,7 +11382,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>21</v>
@@ -11396,13 +11396,13 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>21</v>
@@ -11424,7 +11424,7 @@
         <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>21</v>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
@@ -11444,13 +11444,13 @@
         <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -11458,7 +11458,7 @@
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>20</v>
@@ -11480,13 +11480,13 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
@@ -11525,7 +11525,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -11539,13 +11539,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11553,13 +11553,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11567,13 +11567,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11581,7 +11581,7 @@
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -11615,13 +11615,13 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11632,7 +11632,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>20</v>
@@ -11643,18 +11643,18 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>861</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -11663,7 +11663,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -11674,7 +11674,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -11683,7 +11683,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -11697,13 +11697,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11717,7 +11717,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
@@ -11737,13 +11737,13 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11751,13 +11751,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11771,7 +11771,7 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11779,13 +11779,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11793,13 +11793,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>740</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11807,7 +11807,7 @@
         <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>20</v>
@@ -11818,7 +11818,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
@@ -11827,13 +11827,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11841,13 +11841,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -11855,13 +11855,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11872,10 +11872,10 @@
         <v>124</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11889,13 +11889,13 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11909,7 +11909,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>21</v>
@@ -11937,13 +11937,13 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -11971,13 +11971,13 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11985,7 +11985,7 @@
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>21</v>
@@ -11999,7 +11999,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>21</v>
@@ -12013,7 +12013,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>20</v>
@@ -12033,13 +12033,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12053,7 +12053,7 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>21</v>
@@ -12067,13 +12067,13 @@
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -12081,13 +12081,13 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -12106,7 +12106,7 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -12115,7 +12115,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>21</v>
@@ -12129,13 +12129,13 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -12143,18 +12143,18 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -12163,13 +12163,13 @@
         <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -12177,13 +12177,13 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -12191,18 +12191,18 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
@@ -12211,13 +12211,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -12225,13 +12225,13 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -12239,13 +12239,13 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12273,7 +12273,7 @@
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>20</v>
@@ -12284,7 +12284,7 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -12293,13 +12293,13 @@
         <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -12307,7 +12307,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>21</v>
@@ -12335,13 +12335,13 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -12349,18 +12349,18 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
@@ -12369,13 +12369,13 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -12383,7 +12383,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>20</v>
@@ -12394,7 +12394,7 @@
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
@@ -12403,7 +12403,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>21</v>
@@ -12417,7 +12417,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>21</v>
@@ -12431,13 +12431,13 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -12445,13 +12445,13 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12465,7 +12465,7 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>21</v>
@@ -12479,13 +12479,13 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -12493,13 +12493,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F83" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -12507,7 +12507,7 @@
         <v>58</v>
       </c>
       <c r="D84" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>21</v>
@@ -12527,13 +12527,13 @@
         <v>83</v>
       </c>
       <c r="D86" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F86" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -12541,13 +12541,13 @@
         <v>83</v>
       </c>
       <c r="D87" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -12555,13 +12555,13 @@
         <v>83</v>
       </c>
       <c r="D88" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F88" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -12569,13 +12569,13 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -12591,7 +12591,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12627,7 +12627,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -12636,7 +12636,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -12650,7 +12650,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -12664,7 +12664,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -12684,7 +12684,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -12698,7 +12698,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -12718,7 +12718,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -12732,7 +12732,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -12746,13 +12746,13 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12760,7 +12760,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
@@ -12771,7 +12771,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -12780,7 +12780,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -12794,13 +12794,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12814,13 +12814,13 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12828,13 +12828,13 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12842,7 +12842,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -12856,7 +12856,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
@@ -12870,13 +12870,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12884,13 +12884,13 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12904,7 +12904,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>21</v>
@@ -12918,7 +12918,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>21</v>
@@ -12938,7 +12938,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12952,13 +12952,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -12966,7 +12966,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -12986,7 +12986,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>21</v>
@@ -13000,13 +13000,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -13014,7 +13014,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>21</v>
@@ -13028,13 +13028,13 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -13042,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
@@ -13062,13 +13062,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
@@ -13096,7 +13096,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
@@ -13110,13 +13110,13 @@
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -13124,13 +13124,13 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -13138,13 +13138,13 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13158,13 +13158,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -13172,13 +13172,13 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -13186,13 +13186,13 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13206,7 +13206,7 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>21</v>
@@ -13220,7 +13220,7 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>21</v>
@@ -13234,13 +13234,13 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>21</v>
@@ -13262,7 +13262,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>20</v>
@@ -13282,7 +13282,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>20</v>
@@ -13293,7 +13293,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -13302,7 +13302,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>21</v>
@@ -13316,7 +13316,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>21</v>
@@ -13330,13 +13330,13 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13350,13 +13350,13 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -13364,18 +13364,18 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -13384,7 +13384,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>20</v>
@@ -13395,7 +13395,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -13404,13 +13404,13 @@
         <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -13426,7 +13426,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13471,7 +13471,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -13491,7 +13491,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -13502,7 +13502,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -13511,18 +13511,18 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
@@ -13531,7 +13531,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -13545,13 +13545,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -13559,13 +13559,13 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13579,7 +13579,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
@@ -13599,7 +13599,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -13613,13 +13613,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13633,18 +13633,18 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -13653,7 +13653,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
@@ -13673,13 +13673,13 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13687,7 +13687,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
@@ -13707,18 +13707,18 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -13727,7 +13727,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>21</v>
@@ -13741,7 +13741,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>21</v>
@@ -13755,7 +13755,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>21</v>
@@ -13783,18 +13783,18 @@
         <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -13803,13 +13803,13 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -13817,13 +13817,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13843,12 +13843,12 @@
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -13857,13 +13857,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -13871,7 +13871,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
@@ -14290,7 +14290,7 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14326,7 +14326,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -14335,13 +14335,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -14349,13 +14349,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -14363,18 +14363,18 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -14383,13 +14383,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14397,7 +14397,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -14408,7 +14408,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -14417,7 +14417,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -14431,7 +14431,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
@@ -14451,7 +14451,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -14465,18 +14465,18 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -14485,7 +14485,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -14505,7 +14505,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -14525,13 +14525,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14545,7 +14545,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
@@ -14559,7 +14559,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
@@ -14573,7 +14573,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>20</v>
@@ -14584,7 +14584,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -14593,13 +14593,13 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -14607,13 +14607,13 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -14621,7 +14621,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>21</v>
@@ -14635,13 +14635,13 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -14649,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>21</v>
@@ -14663,13 +14663,13 @@
         <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14683,7 +14683,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>20</v>
@@ -14694,7 +14694,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -14703,7 +14703,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>21</v>
@@ -14717,7 +14717,7 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>21</v>
@@ -14731,13 +14731,13 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -14745,13 +14745,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -14759,7 +14759,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
@@ -14770,7 +14770,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -14779,13 +14779,13 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14799,7 +14799,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>20</v>
@@ -14821,7 +14821,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14857,7 +14857,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -14866,13 +14866,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14886,13 +14886,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -14900,7 +14900,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
@@ -14911,7 +14911,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -14920,7 +14920,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -14934,18 +14934,18 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -14954,7 +14954,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -14968,7 +14968,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -14982,13 +14982,13 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -14996,7 +14996,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -15010,7 +15010,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -15021,7 +15021,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -15030,13 +15030,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15050,13 +15050,13 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -15064,7 +15064,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -15078,13 +15078,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15098,13 +15098,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -15156,7 +15156,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -15165,7 +15165,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -15185,7 +15185,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -15199,18 +15199,18 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -15219,7 +15219,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>861</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -15239,13 +15239,13 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -15253,7 +15253,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -15267,7 +15267,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>20</v>
@@ -15278,7 +15278,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -15287,13 +15287,13 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -15301,13 +15301,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -15315,13 +15315,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15335,13 +15335,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15355,13 +15355,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15375,7 +15375,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>20</v>
@@ -15395,7 +15395,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>20</v>
@@ -17092,7 +17092,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -17135,7 +17135,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -17169,7 +17169,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -17189,7 +17189,7 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -17203,7 +17203,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17237,7 +17237,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17271,7 +17271,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17299,7 +17299,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>21</v>
@@ -17339,7 +17339,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17353,7 +17353,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -17401,7 +17401,7 @@
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -17429,7 +17429,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>21</v>
@@ -17449,7 +17449,7 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -17463,7 +17463,7 @@
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -17471,7 +17471,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>21</v>
@@ -17505,13 +17505,13 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -17525,7 +17525,7 @@
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17539,7 +17539,7 @@
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -17573,7 +17573,7 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17655,7 +17655,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>21</v>
@@ -17675,7 +17675,7 @@
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17709,7 +17709,7 @@
         <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -17743,7 +17743,7 @@
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -17757,7 +17757,7 @@
         <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -17833,7 +17833,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -17853,7 +17853,7 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17872,7 +17872,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -17881,7 +17881,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
@@ -17901,7 +17901,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -17915,13 +17915,13 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -18016,7 +18016,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -18087,7 +18087,7 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18101,13 +18101,13 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -18115,13 +18115,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -18177,13 +18177,13 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
+        <v>317</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
         <v>318</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -18208,7 +18208,7 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>21</v>
@@ -18324,7 +18324,7 @@
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -18338,7 +18338,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18352,13 +18352,13 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -18386,7 +18386,7 @@
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -18414,13 +18414,13 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -18448,7 +18448,7 @@
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -18462,7 +18462,7 @@
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18510,7 +18510,7 @@
         <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -18524,7 +18524,7 @@
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18544,7 +18544,7 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18648,7 +18648,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -18677,7 +18677,7 @@
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -18705,7 +18705,7 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18719,7 +18719,7 @@
         <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>21</v>
@@ -18753,7 +18753,7 @@
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -18767,7 +18767,7 @@
         <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -18795,7 +18795,7 @@
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -18837,7 +18837,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>21</v>
@@ -18857,7 +18857,7 @@
         <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -18865,7 +18865,7 @@
         <v>58</v>
       </c>
       <c r="D87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>21</v>
@@ -18876,7 +18876,7 @@
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
@@ -18891,7 +18891,7 @@
         <v>21</v>
       </c>
       <c r="F89" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -18933,7 +18933,7 @@
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18995,7 +18995,7 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>21</v>
@@ -19074,7 +19074,7 @@
         <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>21</v>
@@ -19085,7 +19085,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>21</v>
@@ -19119,7 +19119,7 @@
         <v>20</v>
       </c>
       <c r="F109" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -19181,7 +19181,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -19215,7 +19215,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -19243,12 +19243,12 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -19277,7 +19277,7 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -19305,7 +19305,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
@@ -19325,7 +19325,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -19353,7 +19353,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -19373,7 +19373,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19387,7 +19387,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -19421,7 +19421,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19441,7 +19441,7 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -19483,7 +19483,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19497,7 +19497,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -19511,13 +19511,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -19565,7 +19565,7 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>21</v>
@@ -19579,7 +19579,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>21</v>
@@ -19599,7 +19599,7 @@
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -19613,7 +19613,7 @@
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19633,7 +19633,7 @@
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -19675,7 +19675,7 @@
         <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>21</v>
@@ -19689,13 +19689,13 @@
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -19709,7 +19709,7 @@
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -19717,7 +19717,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>21</v>
@@ -19737,7 +19737,7 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19751,7 +19751,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>21</v>
@@ -19771,7 +19771,7 @@
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19785,7 +19785,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>20</v>
@@ -19825,7 +19825,7 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19859,7 +19859,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>21</v>
@@ -19879,7 +19879,7 @@
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -19898,7 +19898,7 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -19913,7 +19913,7 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -19974,13 +19974,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>375</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -20036,7 +20036,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -20056,7 +20056,7 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -20064,7 +20064,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -20098,7 +20098,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -20118,7 +20118,7 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -20151,7 +20151,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -20180,7 +20180,7 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20194,12 +20194,12 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -20228,7 +20228,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -20242,7 +20242,7 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -20256,7 +20256,7 @@
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -20289,7 +20289,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
@@ -20298,13 +20298,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -20346,12 +20346,12 @@
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
@@ -20374,7 +20374,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>21</v>
@@ -20388,13 +20388,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20408,7 +20408,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>21</v>
@@ -20470,13 +20470,13 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -20484,7 +20484,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>21</v>
@@ -20504,7 +20504,7 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20546,13 +20546,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -20566,7 +20566,7 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20580,13 +20580,13 @@
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -20594,7 +20594,7 @@
         <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>21</v>
@@ -20608,13 +20608,13 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -20628,7 +20628,7 @@
         <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -20642,7 +20642,7 @@
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -20656,7 +20656,7 @@
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -20690,7 +20690,7 @@
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -20698,13 +20698,13 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -20718,7 +20718,7 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20732,7 +20732,7 @@
         <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>21</v>
@@ -20746,13 +20746,13 @@
         <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -20760,7 +20760,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>20</v>
@@ -20780,7 +20780,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>21</v>
@@ -20800,7 +20800,7 @@
         <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -20819,7 +20819,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -20828,13 +20828,13 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -20848,7 +20848,7 @@
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20862,7 +20862,7 @@
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -20890,13 +20890,13 @@
         <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -20904,7 +20904,7 @@
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>21</v>
@@ -20932,13 +20932,13 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
+        <v>419</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
         <v>420</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20952,7 +20952,7 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>21</v>
@@ -20966,7 +20966,7 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>21</v>
@@ -20986,7 +20986,7 @@
         <v>21</v>
       </c>
       <c r="F83" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -21005,7 +21005,7 @@
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
@@ -21020,7 +21020,7 @@
         <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -21028,13 +21028,13 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -21042,7 +21042,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>21</v>
@@ -21062,7 +21062,7 @@
         <v>21</v>
       </c>
       <c r="F89" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21076,7 +21076,7 @@
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>21</v>
@@ -21090,7 +21090,7 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>21</v>
@@ -21110,7 +21110,7 @@
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21135,7 +21135,7 @@
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B97" t="s">
         <v>19</v>
@@ -21144,13 +21144,13 @@
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F97" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -21278,7 +21278,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -21287,13 +21287,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21307,7 +21307,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -21321,7 +21321,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -21349,7 +21349,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -21360,7 +21360,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -21369,13 +21369,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -21383,7 +21383,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
@@ -21409,7 +21409,7 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -21437,12 +21437,12 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -21451,7 +21451,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -21513,7 +21513,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
@@ -21527,13 +21527,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -21561,7 +21561,7 @@
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -21569,13 +21569,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -21603,13 +21603,13 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
+        <v>446</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
         <v>447</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -21631,13 +21631,13 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21654,7 +21654,7 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -21679,13 +21679,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -21699,7 +21699,7 @@
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -21707,13 +21707,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21727,13 +21727,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -21741,7 +21741,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
@@ -21775,7 +21775,7 @@
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -21789,7 +21789,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21803,7 +21803,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>21</v>
@@ -21817,13 +21817,13 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
+        <v>456</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
         <v>457</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -21859,7 +21859,7 @@
         <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>20</v>
@@ -21907,7 +21907,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>21</v>
@@ -21921,7 +21921,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>21</v>
@@ -21941,7 +21941,7 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21961,7 +21961,7 @@
         <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -21969,13 +21969,13 @@
         <v>31</v>
       </c>
       <c r="D58" t="s">
+        <v>463</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
         <v>464</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21983,7 +21983,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>21</v>
@@ -21997,7 +21997,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>21</v>
@@ -22031,13 +22031,13 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -22065,12 +22065,12 @@
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -22079,13 +22079,13 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -22099,7 +22099,7 @@
         <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -22113,7 +22113,7 @@
         <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -22121,13 +22121,13 @@
         <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22141,7 +22141,7 @@
         <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>21</v>
@@ -22155,13 +22155,13 @@
         <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -22183,7 +22183,7 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>21</v>
@@ -22197,7 +22197,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>21</v>
@@ -22217,7 +22217,7 @@
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -22248,12 +22248,12 @@
         <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>21</v>
@@ -22273,13 +22273,13 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F83" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -22327,7 +22327,7 @@
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -22355,12 +22355,12 @@
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
@@ -22369,13 +22369,13 @@
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F91" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -22389,7 +22389,7 @@
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22409,7 +22409,7 @@
         <v>20</v>
       </c>
       <c r="F94" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -22437,7 +22437,7 @@
         <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -22498,7 +22498,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -22518,7 +22518,7 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -22532,7 +22532,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -22546,7 +22546,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22574,13 +22574,13 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -22588,7 +22588,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
@@ -22599,7 +22599,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>862</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -22614,7 +22614,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -22622,13 +22622,13 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22642,7 +22642,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -22662,7 +22662,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -22670,13 +22670,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -22690,7 +22690,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22704,7 +22704,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -22718,13 +22718,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -22732,7 +22732,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
@@ -22746,7 +22746,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
@@ -22766,7 +22766,7 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -22794,13 +22794,13 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -22808,13 +22808,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -22822,7 +22822,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -22856,7 +22856,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22867,7 +22867,7 @@
         <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>21</v>
@@ -22887,7 +22887,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>21</v>
@@ -22901,13 +22901,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22921,7 +22921,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>21</v>
@@ -22935,7 +22935,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
@@ -22955,7 +22955,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
@@ -22969,7 +22969,7 @@
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>21</v>
@@ -22997,7 +22997,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>21</v>
@@ -23011,7 +23011,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>21</v>
@@ -23045,7 +23045,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>20</v>
@@ -23065,13 +23065,13 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -23079,7 +23079,7 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>21</v>
@@ -23093,7 +23093,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>21</v>
@@ -23107,13 +23107,13 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23127,13 +23127,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -23141,13 +23141,13 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -23166,7 +23166,7 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -23175,7 +23175,7 @@
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>20</v>
@@ -23195,7 +23195,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>21</v>
@@ -23209,13 +23209,13 @@
         <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -23223,13 +23223,13 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -23246,12 +23246,12 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>21</v>
@@ -23262,7 +23262,7 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -23271,13 +23271,13 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -23285,7 +23285,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>21</v>
@@ -23299,13 +23299,13 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -23313,13 +23313,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -23338,7 +23338,7 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
@@ -23347,7 +23347,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>21</v>
@@ -23361,7 +23361,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>21</v>
@@ -23381,7 +23381,7 @@
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -23389,7 +23389,7 @@
         <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>20</v>
@@ -23415,7 +23415,7 @@
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23429,7 +23429,7 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>21</v>
@@ -23443,13 +23443,13 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
+        <v>520</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
         <v>521</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F81" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -23477,7 +23477,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>20</v>
@@ -23491,13 +23491,13 @@
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
+++ b/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9037" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CB9355E-1A93-4B73-B156-CA4FFC06B916}"/>
+  <xr:revisionPtr revIDLastSave="9043" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F82A6E-0323-4473-A562-97FA58B91787}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="13" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="13" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="6" r:id="rId1"/>
@@ -36,8 +36,6 @@
     <sheet name="2020" sheetId="27" r:id="rId21"/>
     <sheet name="2021" sheetId="33" r:id="rId22"/>
     <sheet name="Stats" sheetId="1" r:id="rId23"/>
-    <sheet name="Wins-Losses" sheetId="34" r:id="rId24"/>
-    <sheet name="Winning Percentile Range" sheetId="35" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3022,7 +3020,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D74-4F95-A0C1-CDAFF36A944F}"/>
+              <c16:uniqueId val="{00000000-F3B6-442F-A149-275EA13E375B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3202,7 +3200,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D74-4F95-A0C1-CDAFF36A944F}"/>
+              <c16:uniqueId val="{00000001-F3B6-442F-A149-275EA13E375B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3504,6 +3502,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3800,7 +3803,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBDB-46A5-AB80-E6A02F5F5F06}"/>
+              <c16:uniqueId val="{00000001-A059-4446-9B10-A9D35214F734}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4102,6 +4105,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5191,46 +5199,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7394548D-F12D-4EC5-A523-6F2377EF6E3B}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB59302D-F9D8-292E-7D59-1820824F1C6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B51E75-A129-99D1-7E6A-DBCFEE5FB0B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5243,27 +5236,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16AF790-C235-C398-001B-86A588BA08FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A16FB0B-9E3E-191C-B57B-7966BD3885A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5271,13 +5267,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5582,7 +5582,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5711,7 +5711,7 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6710,7 +6710,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7475,7 +7475,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8409,7 +8409,7 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8935,7 +8935,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9847,7 +9847,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10638,7 +10638,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11480,7 +11480,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12591,7 +12591,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13426,7 +13426,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13893,7 +13893,7 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14290,7 +14290,7 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14821,7 +14821,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15120,7 +15120,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15418,7 +15418,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15981,6 +15981,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15991,7 +15992,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17016,7 +17017,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17788,7 +17789,7 @@
   </sheetPr>
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19136,7 +19137,7 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19929,7 +19930,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -21242,7 +21243,7 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -22453,7 +22454,7 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
+++ b/Tennis/WTA Tour/Svetlana Kuznetsova.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9043" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F82A6E-0323-4473-A562-97FA58B91787}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="13" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="6" r:id="rId1"/>
@@ -15120,8 +15120,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15417,7 +15417,7 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
